--- a/data/china_ie_partner/2017-05.xlsx
+++ b/data/china_ie_partner/2017-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA612747-E7CC-1440-88B2-898F22537F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B271C70-A184-7247-896B-B8767FF53A0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,729 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -767,23 +47,987 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,16 +1065,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +1110,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,24 +1445,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>34744</v>
+        <v>50527</v>
       </c>
       <c r="C2" s="2">
-        <v>34664</v>
+        <v>50411</v>
       </c>
       <c r="D2" s="3">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -1242,16 +1477,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>59244</v>
+        <v>86157</v>
       </c>
       <c r="C3" s="2">
-        <v>57538</v>
+        <v>83677</v>
       </c>
       <c r="D3" s="2">
-        <v>1705</v>
+        <v>2480</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
@@ -1266,16 +1501,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1059971</v>
+        <v>1540887</v>
       </c>
       <c r="C4" s="2">
-        <v>1005095</v>
+        <v>1461008</v>
       </c>
       <c r="D4" s="2">
-        <v>54876</v>
+        <v>79879</v>
       </c>
       <c r="E4" s="4">
         <v>2017</v>
@@ -1290,16 +1525,16 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4">
         <v>2017</v>
@@ -1314,16 +1549,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>41783</v>
+        <v>60700</v>
       </c>
       <c r="C6" s="2">
-        <v>38249</v>
+        <v>55573</v>
       </c>
       <c r="D6" s="2">
-        <v>3533</v>
+        <v>5127</v>
       </c>
       <c r="E6" s="4">
         <v>2017</v>
@@ -1338,16 +1573,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>808416</v>
+        <v>1174371</v>
       </c>
       <c r="C7" s="2">
-        <v>559258</v>
+        <v>812515</v>
       </c>
       <c r="D7" s="2">
-        <v>249158</v>
+        <v>361856</v>
       </c>
       <c r="E7" s="4">
         <v>2017</v>
@@ -1362,16 +1597,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>379800</v>
+        <v>552246</v>
       </c>
       <c r="C8" s="2">
-        <v>319486</v>
+        <v>464469</v>
       </c>
       <c r="D8" s="2">
-        <v>60314</v>
+        <v>87777</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
@@ -1386,16 +1621,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>29529</v>
+        <v>42956</v>
       </c>
       <c r="C9" s="2">
-        <v>27013</v>
+        <v>39269</v>
       </c>
       <c r="D9" s="2">
-        <v>2516</v>
+        <v>3687</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
@@ -1410,16 +1645,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>304708</v>
+        <v>443512</v>
       </c>
       <c r="C10" s="2">
-        <v>219704</v>
+        <v>319764</v>
       </c>
       <c r="D10" s="2">
-        <v>85004</v>
+        <v>123748</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
@@ -1433,17 +1668,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="6" t="s">
-        <v>242</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>15161864</v>
+        <v>22047479</v>
       </c>
       <c r="C11" s="2">
-        <v>14756979</v>
+        <v>21458349</v>
       </c>
       <c r="D11" s="2">
-        <v>404885</v>
+        <v>589130</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
@@ -1458,16 +1693,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>5074904</v>
+        <v>7380399</v>
       </c>
       <c r="C12" s="2">
-        <v>4091377</v>
+        <v>5948591</v>
       </c>
       <c r="D12" s="2">
-        <v>983528</v>
+        <v>1431808</v>
       </c>
       <c r="E12" s="4">
         <v>2017</v>
@@ -1482,16 +1717,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3874210</v>
+        <v>5633345</v>
       </c>
       <c r="C13" s="2">
-        <v>2362167</v>
+        <v>3433859</v>
       </c>
       <c r="D13" s="2">
-        <v>1512044</v>
+        <v>2199485</v>
       </c>
       <c r="E13" s="4">
         <v>2017</v>
@@ -1506,16 +1741,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2126993</v>
+        <v>3095383</v>
       </c>
       <c r="C14" s="2">
-        <v>1036231</v>
+        <v>1506852</v>
       </c>
       <c r="D14" s="2">
-        <v>1090762</v>
+        <v>1588531</v>
       </c>
       <c r="E14" s="4">
         <v>2017</v>
@@ -1530,16 +1765,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1197894</v>
+        <v>1742749</v>
       </c>
       <c r="C15" s="2">
-        <v>631944</v>
+        <v>918518</v>
       </c>
       <c r="D15" s="2">
-        <v>565950</v>
+        <v>824231</v>
       </c>
       <c r="E15" s="4">
         <v>2017</v>
@@ -1554,16 +1789,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>813267</v>
+        <v>1183376</v>
       </c>
       <c r="C16" s="2">
-        <v>589475</v>
+        <v>857436</v>
       </c>
       <c r="D16" s="2">
-        <v>223792</v>
+        <v>325939</v>
       </c>
       <c r="E16" s="4">
         <v>2017</v>
@@ -1578,16 +1813,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>16274462</v>
+        <v>23579267</v>
       </c>
       <c r="C17" s="2">
-        <v>7423843</v>
+        <v>10777775</v>
       </c>
       <c r="D17" s="2">
-        <v>8850619</v>
+        <v>12801492</v>
       </c>
       <c r="E17" s="4">
         <v>2017</v>
@@ -1602,16 +1837,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>217499</v>
+        <v>316175</v>
       </c>
       <c r="C18" s="2">
-        <v>210548</v>
+        <v>306052</v>
       </c>
       <c r="D18" s="2">
-        <v>6951</v>
+        <v>10123</v>
       </c>
       <c r="E18" s="4">
         <v>2017</v>
@@ -1626,16 +1861,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>679101</v>
+        <v>988456</v>
       </c>
       <c r="C19" s="2">
-        <v>188959</v>
+        <v>274695</v>
       </c>
       <c r="D19" s="2">
-        <v>490142</v>
+        <v>713761</v>
       </c>
       <c r="E19" s="4">
         <v>2017</v>
@@ -1650,16 +1885,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>189646</v>
+        <v>275541</v>
       </c>
       <c r="C20" s="2">
-        <v>90565</v>
+        <v>131604</v>
       </c>
       <c r="D20" s="2">
-        <v>99080</v>
+        <v>143937</v>
       </c>
       <c r="E20" s="4">
         <v>2017</v>
@@ -1674,16 +1909,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>143836</v>
+        <v>209083</v>
       </c>
       <c r="C21" s="2">
-        <v>142781</v>
+        <v>207545</v>
       </c>
       <c r="D21" s="2">
-        <v>1055</v>
+        <v>1537</v>
       </c>
       <c r="E21" s="4">
         <v>2017</v>
@@ -1698,16 +1933,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="5" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>166096</v>
+        <v>241500</v>
       </c>
       <c r="C22" s="2">
-        <v>157708</v>
+        <v>229289</v>
       </c>
       <c r="D22" s="2">
-        <v>8388</v>
+        <v>12211</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
@@ -1722,16 +1957,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="5" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>5627891</v>
+        <v>8185932</v>
       </c>
       <c r="C23" s="2">
-        <v>2549289</v>
+        <v>3706584</v>
       </c>
       <c r="D23" s="2">
-        <v>3078602</v>
+        <v>4479347</v>
       </c>
       <c r="E23" s="4">
         <v>2017</v>
@@ -1746,16 +1981,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>21611</v>
+        <v>31397</v>
       </c>
       <c r="C24" s="2">
-        <v>21568</v>
+        <v>31334</v>
       </c>
       <c r="D24" s="3">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4">
         <v>2017</v>
@@ -1770,16 +2005,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>393836</v>
+        <v>572717</v>
       </c>
       <c r="C25" s="2">
-        <v>89335</v>
+        <v>129884</v>
       </c>
       <c r="D25" s="2">
-        <v>304501</v>
+        <v>442832</v>
       </c>
       <c r="E25" s="4">
         <v>2017</v>
@@ -1794,16 +2029,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>61508</v>
+        <v>89395</v>
       </c>
       <c r="C26" s="2">
-        <v>60332</v>
+        <v>87682</v>
       </c>
       <c r="D26" s="2">
-        <v>1176</v>
+        <v>1713</v>
       </c>
       <c r="E26" s="4">
         <v>2017</v>
@@ -1818,16 +2053,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>998764</v>
+        <v>1454138</v>
       </c>
       <c r="C27" s="2">
-        <v>173110</v>
+        <v>251681</v>
       </c>
       <c r="D27" s="2">
-        <v>825655</v>
+        <v>1202457</v>
       </c>
       <c r="E27" s="4">
         <v>2017</v>
@@ -1842,16 +2077,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1286690</v>
+        <v>1870483</v>
       </c>
       <c r="C28" s="2">
-        <v>1196153</v>
+        <v>1738672</v>
       </c>
       <c r="D28" s="2">
-        <v>90537</v>
+        <v>131811</v>
       </c>
       <c r="E28" s="4">
         <v>2017</v>
@@ -1866,13 +2101,13 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>6104</v>
+        <v>8871</v>
       </c>
       <c r="C29" s="2">
-        <v>6103</v>
+        <v>8871</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1890,16 +2125,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>3033341</v>
+        <v>4411154</v>
       </c>
       <c r="C30" s="2">
-        <v>1970530</v>
+        <v>2864859</v>
       </c>
       <c r="D30" s="2">
-        <v>1062810</v>
+        <v>1546295</v>
       </c>
       <c r="E30" s="4">
         <v>2017</v>
@@ -1914,16 +2149,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>467824</v>
+        <v>680604</v>
       </c>
       <c r="C31" s="2">
-        <v>98168</v>
+        <v>142777</v>
       </c>
       <c r="D31" s="2">
-        <v>369656</v>
+        <v>537827</v>
       </c>
       <c r="E31" s="4">
         <v>2017</v>
@@ -1938,16 +2173,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>3197105</v>
+        <v>4651297</v>
       </c>
       <c r="C32" s="2">
-        <v>1470373</v>
+        <v>2137321</v>
       </c>
       <c r="D32" s="2">
-        <v>1726731</v>
+        <v>2513976</v>
       </c>
       <c r="E32" s="4">
         <v>2017</v>
@@ -1962,16 +2197,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4272317</v>
+        <v>6213191</v>
       </c>
       <c r="C33" s="2">
-        <v>2501046</v>
+        <v>3635474</v>
       </c>
       <c r="D33" s="2">
-        <v>1771272</v>
+        <v>2577717</v>
       </c>
       <c r="E33" s="4">
         <v>2017</v>
@@ -1986,16 +2221,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>15495684</v>
+        <v>22536203</v>
       </c>
       <c r="C34" s="2">
-        <v>6084562</v>
+        <v>8842678</v>
       </c>
       <c r="D34" s="2">
-        <v>9411121</v>
+        <v>13693525</v>
       </c>
       <c r="E34" s="4">
         <v>2017</v>
@@ -2010,16 +2245,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>258328</v>
+        <v>375657</v>
       </c>
       <c r="C35" s="2">
-        <v>246114</v>
+        <v>357876</v>
       </c>
       <c r="D35" s="2">
-        <v>12214</v>
+        <v>17781</v>
       </c>
       <c r="E35" s="4">
         <v>2017</v>
@@ -2034,16 +2269,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>70494</v>
+        <v>102487</v>
       </c>
       <c r="C36" s="2">
-        <v>70417</v>
+        <v>102374</v>
       </c>
       <c r="D36" s="3">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4">
         <v>2017</v>
@@ -2058,16 +2293,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>4732772</v>
+        <v>6882923</v>
       </c>
       <c r="C37" s="2">
-        <v>2346395</v>
+        <v>3411410</v>
       </c>
       <c r="D37" s="2">
-        <v>2386377</v>
+        <v>3471513</v>
       </c>
       <c r="E37" s="4">
         <v>2017</v>
@@ -2082,16 +2317,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1374420</v>
+        <v>1999013</v>
       </c>
       <c r="C38" s="2">
-        <v>1149602</v>
+        <v>1671426</v>
       </c>
       <c r="D38" s="2">
-        <v>224818</v>
+        <v>327587</v>
       </c>
       <c r="E38" s="4">
         <v>2017</v>
@@ -2106,16 +2341,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2801067</v>
+        <v>4073539</v>
       </c>
       <c r="C39" s="2">
-        <v>1923720</v>
+        <v>2796725</v>
       </c>
       <c r="D39" s="2">
-        <v>877348</v>
+        <v>1276814</v>
       </c>
       <c r="E39" s="4">
         <v>2017</v>
@@ -2130,16 +2365,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>133853</v>
+        <v>194635</v>
       </c>
       <c r="C40" s="2">
-        <v>132664</v>
+        <v>192905</v>
       </c>
       <c r="D40" s="2">
-        <v>1190</v>
+        <v>1730</v>
       </c>
       <c r="E40" s="4">
         <v>2017</v>
@@ -2154,16 +2389,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>6346233</v>
+        <v>9227946</v>
       </c>
       <c r="C41" s="2">
-        <v>3965850</v>
+        <v>5764931</v>
       </c>
       <c r="D41" s="2">
-        <v>2380383</v>
+        <v>3463016</v>
       </c>
       <c r="E41" s="4">
         <v>2017</v>
@@ -2178,16 +2413,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>7061383</v>
+        <v>10269899</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>7061383</v>
+        <v>10269899</v>
       </c>
       <c r="E42" s="4">
         <v>2017</v>
@@ -2201,17 +2436,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>243</v>
+      <c r="A43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>10546619</v>
+        <v>15340924</v>
       </c>
       <c r="C43" s="2">
-        <v>2525506</v>
+        <v>3672255</v>
       </c>
       <c r="D43" s="2">
-        <v>8021113</v>
+        <v>11668670</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
@@ -2226,13 +2461,13 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>7418</v>
+        <v>10772</v>
       </c>
       <c r="C44" s="2">
-        <v>7418</v>
+        <v>10772</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2250,16 +2485,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>973491</v>
+        <v>1416642</v>
       </c>
       <c r="C45" s="2">
-        <v>580054</v>
+        <v>843693</v>
       </c>
       <c r="D45" s="2">
-        <v>393436</v>
+        <v>572949</v>
       </c>
       <c r="E45" s="4">
         <v>2017</v>
@@ -2274,16 +2509,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>242187</v>
+        <v>352580</v>
       </c>
       <c r="C46" s="2">
-        <v>235354</v>
+        <v>342629</v>
       </c>
       <c r="D46" s="2">
-        <v>6834</v>
+        <v>9952</v>
       </c>
       <c r="E46" s="4">
         <v>2017</v>
@@ -2298,16 +2533,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>69239</v>
+        <v>100776</v>
       </c>
       <c r="C47" s="2">
-        <v>66891</v>
+        <v>97356</v>
       </c>
       <c r="D47" s="2">
-        <v>2348</v>
+        <v>3420</v>
       </c>
       <c r="E47" s="4">
         <v>2017</v>
@@ -2322,16 +2557,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>408748</v>
+        <v>595143</v>
       </c>
       <c r="C48" s="2">
-        <v>40394</v>
+        <v>58685</v>
       </c>
       <c r="D48" s="2">
-        <v>368353</v>
+        <v>536457</v>
       </c>
       <c r="E48" s="4">
         <v>2017</v>
@@ -2346,16 +2581,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>193164</v>
+        <v>281081</v>
       </c>
       <c r="C49" s="2">
-        <v>96902</v>
+        <v>140897</v>
       </c>
       <c r="D49" s="2">
-        <v>96263</v>
+        <v>140184</v>
       </c>
       <c r="E49" s="4">
         <v>2017</v>
@@ -2370,16 +2605,16 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3">
-        <v>806</v>
+        <v>54</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1172</v>
       </c>
       <c r="C50" s="3">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="D50" s="3">
-        <v>481</v>
+        <v>701</v>
       </c>
       <c r="E50" s="4">
         <v>2017</v>
@@ -2394,16 +2629,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>11573906</v>
+        <v>16835094</v>
       </c>
       <c r="C51" s="2">
-        <v>6503370</v>
+        <v>9454024</v>
       </c>
       <c r="D51" s="2">
-        <v>5070536</v>
+        <v>7381069</v>
       </c>
       <c r="E51" s="4">
         <v>2017</v>
@@ -2418,16 +2653,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>529333</v>
+        <v>769488</v>
       </c>
       <c r="C52" s="2">
-        <v>476319</v>
+        <v>692323</v>
       </c>
       <c r="D52" s="2">
-        <v>53014</v>
+        <v>77165</v>
       </c>
       <c r="E52" s="4">
         <v>2017</v>
@@ -2442,16 +2677,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1678848</v>
+        <v>2443557</v>
       </c>
       <c r="C53" s="2">
-        <v>169242</v>
+        <v>246020</v>
       </c>
       <c r="D53" s="2">
-        <v>1509605</v>
+        <v>2197537</v>
       </c>
       <c r="E53" s="4">
         <v>2017</v>
@@ -2466,16 +2701,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>126952</v>
+        <v>184598</v>
       </c>
       <c r="C54" s="2">
-        <v>120195</v>
+        <v>174756</v>
       </c>
       <c r="D54" s="2">
-        <v>6758</v>
+        <v>9841</v>
       </c>
       <c r="E54" s="4">
         <v>2017</v>
@@ -2490,16 +2725,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>19070</v>
+        <v>27740</v>
       </c>
       <c r="C55" s="2">
-        <v>15659</v>
+        <v>22773</v>
       </c>
       <c r="D55" s="2">
-        <v>3411</v>
+        <v>4967</v>
       </c>
       <c r="E55" s="4">
         <v>2017</v>
@@ -2514,16 +2749,16 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>3743</v>
+        <v>5439</v>
       </c>
       <c r="C56" s="2">
-        <v>3566</v>
+        <v>5183</v>
       </c>
       <c r="D56" s="3">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="E56" s="4">
         <v>2017</v>
@@ -2538,16 +2773,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>124472</v>
+        <v>181202</v>
       </c>
       <c r="C57" s="2">
-        <v>104730</v>
+        <v>152220</v>
       </c>
       <c r="D57" s="2">
-        <v>19742</v>
+        <v>28982</v>
       </c>
       <c r="E57" s="4">
         <v>2017</v>
@@ -2562,16 +2797,16 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="C58" s="3">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>2017</v>
@@ -2586,13 +2821,13 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>3309</v>
+        <v>4817</v>
       </c>
       <c r="C59" s="2">
-        <v>3309</v>
+        <v>4817</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2610,16 +2845,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>3280</v>
+        <v>4802</v>
       </c>
       <c r="C60" s="3">
-        <v>680</v>
+        <v>988</v>
       </c>
       <c r="D60" s="2">
-        <v>2600</v>
+        <v>3815</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
@@ -2634,16 +2869,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
@@ -2658,16 +2893,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>44240</v>
+        <v>64404</v>
       </c>
       <c r="C62" s="2">
-        <v>6833</v>
+        <v>9925</v>
       </c>
       <c r="D62" s="2">
-        <v>37407</v>
+        <v>54479</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
@@ -2682,13 +2917,13 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>5398</v>
+        <v>7847</v>
       </c>
       <c r="C63" s="2">
-        <v>5398</v>
+        <v>7847</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2706,16 +2941,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>223264</v>
+        <v>325096</v>
       </c>
       <c r="C64" s="2">
-        <v>34543</v>
+        <v>50211</v>
       </c>
       <c r="D64" s="2">
-        <v>188720</v>
+        <v>274885</v>
       </c>
       <c r="E64" s="4">
         <v>2017</v>
@@ -2730,13 +2965,13 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>168848</v>
+        <v>245495</v>
       </c>
       <c r="C65" s="2">
-        <v>168848</v>
+        <v>245494</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -2754,16 +2989,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>726816</v>
+        <v>1057131</v>
       </c>
       <c r="C66" s="2">
-        <v>623018</v>
+        <v>905970</v>
       </c>
       <c r="D66" s="2">
-        <v>103798</v>
+        <v>151162</v>
       </c>
       <c r="E66" s="4">
         <v>2017</v>
@@ -2778,16 +3013,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>108896</v>
+        <v>158687</v>
       </c>
       <c r="C67" s="2">
-        <v>14553</v>
+        <v>21171</v>
       </c>
       <c r="D67" s="2">
-        <v>94343</v>
+        <v>137515</v>
       </c>
       <c r="E67" s="4">
         <v>2017</v>
@@ -2802,16 +3037,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>200247</v>
+        <v>291343</v>
       </c>
       <c r="C68" s="2">
-        <v>167467</v>
+        <v>243622</v>
       </c>
       <c r="D68" s="2">
-        <v>32779</v>
+        <v>47721</v>
       </c>
       <c r="E68" s="4">
         <v>2017</v>
@@ -2826,16 +3061,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>184347</v>
+        <v>268412</v>
       </c>
       <c r="C69" s="2">
-        <v>24330</v>
+        <v>35373</v>
       </c>
       <c r="D69" s="2">
-        <v>160017</v>
+        <v>233040</v>
       </c>
       <c r="E69" s="4">
         <v>2017</v>
@@ -2850,16 +3085,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>29874</v>
+        <v>43442</v>
       </c>
       <c r="C70" s="2">
-        <v>25859</v>
+        <v>37595</v>
       </c>
       <c r="D70" s="2">
-        <v>4015</v>
+        <v>5847</v>
       </c>
       <c r="E70" s="4">
         <v>2017</v>
@@ -2874,16 +3109,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>474863</v>
+        <v>690820</v>
       </c>
       <c r="C71" s="2">
-        <v>308932</v>
+        <v>449205</v>
       </c>
       <c r="D71" s="2">
-        <v>165931</v>
+        <v>241615</v>
       </c>
       <c r="E71" s="4">
         <v>2017</v>
@@ -2898,16 +3133,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>157322</v>
+        <v>228885</v>
       </c>
       <c r="C72" s="2">
-        <v>72567</v>
+        <v>105478</v>
       </c>
       <c r="D72" s="2">
-        <v>84755</v>
+        <v>123408</v>
       </c>
       <c r="E72" s="4">
         <v>2017</v>
@@ -2922,16 +3157,16 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>6364</v>
+        <v>9223</v>
       </c>
       <c r="C73" s="2">
-        <v>6310</v>
+        <v>9145</v>
       </c>
       <c r="D73" s="3">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E73" s="4">
         <v>2017</v>
@@ -2946,16 +3181,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>131096</v>
+        <v>190650</v>
       </c>
       <c r="C74" s="2">
-        <v>127289</v>
+        <v>185103</v>
       </c>
       <c r="D74" s="2">
-        <v>3807</v>
+        <v>5547</v>
       </c>
       <c r="E74" s="4">
         <v>2017</v>
@@ -2970,16 +3205,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>371577</v>
+        <v>540027</v>
       </c>
       <c r="C75" s="2">
-        <v>360210</v>
+        <v>523491</v>
       </c>
       <c r="D75" s="2">
-        <v>11367</v>
+        <v>16536</v>
       </c>
       <c r="E75" s="4">
         <v>2017</v>
@@ -2994,16 +3229,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>178026</v>
+        <v>258202</v>
       </c>
       <c r="C76" s="2">
-        <v>177530</v>
+        <v>257478</v>
       </c>
       <c r="D76" s="3">
-        <v>496</v>
+        <v>723</v>
       </c>
       <c r="E76" s="4">
         <v>2017</v>
@@ -3018,16 +3253,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>159106</v>
+        <v>231240</v>
       </c>
       <c r="C77" s="2">
-        <v>64410</v>
+        <v>93685</v>
       </c>
       <c r="D77" s="2">
-        <v>94696</v>
+        <v>137555</v>
       </c>
       <c r="E77" s="4">
         <v>2017</v>
@@ -3042,16 +3277,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>90259</v>
+        <v>131231</v>
       </c>
       <c r="C78" s="2">
-        <v>74597</v>
+        <v>108433</v>
       </c>
       <c r="D78" s="2">
-        <v>15662</v>
+        <v>22798</v>
       </c>
       <c r="E78" s="4">
         <v>2017</v>
@@ -3066,16 +3301,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>28066</v>
+        <v>40821</v>
       </c>
       <c r="C79" s="2">
-        <v>26895</v>
+        <v>39115</v>
       </c>
       <c r="D79" s="2">
-        <v>1171</v>
+        <v>1706</v>
       </c>
       <c r="E79" s="4">
         <v>2017</v>
@@ -3090,16 +3325,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>22065</v>
+        <v>32100</v>
       </c>
       <c r="C80" s="2">
-        <v>16915</v>
+        <v>24603</v>
       </c>
       <c r="D80" s="2">
-        <v>5150</v>
+        <v>7497</v>
       </c>
       <c r="E80" s="4">
         <v>2017</v>
@@ -3114,16 +3349,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>124221</v>
+        <v>180570</v>
       </c>
       <c r="C81" s="2">
-        <v>60092</v>
+        <v>87310</v>
       </c>
       <c r="D81" s="2">
-        <v>64129</v>
+        <v>93259</v>
       </c>
       <c r="E81" s="4">
         <v>2017</v>
@@ -3138,16 +3373,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>49442</v>
+        <v>71877</v>
       </c>
       <c r="C82" s="2">
-        <v>48394</v>
+        <v>70350</v>
       </c>
       <c r="D82" s="2">
-        <v>1048</v>
+        <v>1528</v>
       </c>
       <c r="E82" s="4">
         <v>2017</v>
@@ -3162,16 +3397,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>285476</v>
+        <v>415259</v>
       </c>
       <c r="C83" s="2">
-        <v>245479</v>
+        <v>356995</v>
       </c>
       <c r="D83" s="2">
-        <v>39997</v>
+        <v>58264</v>
       </c>
       <c r="E83" s="4">
         <v>2017</v>
@@ -3186,16 +3421,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>126918</v>
+        <v>184462</v>
       </c>
       <c r="C84" s="2">
-        <v>96224</v>
+        <v>139818</v>
       </c>
       <c r="D84" s="2">
-        <v>30694</v>
+        <v>44644</v>
       </c>
       <c r="E84" s="4">
         <v>2017</v>
@@ -3210,16 +3445,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>29183</v>
+        <v>42463</v>
       </c>
       <c r="C85" s="2">
-        <v>15743</v>
+        <v>22890</v>
       </c>
       <c r="D85" s="2">
-        <v>13440</v>
+        <v>19573</v>
       </c>
       <c r="E85" s="4">
         <v>2017</v>
@@ -3234,16 +3469,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>9555</v>
+        <v>13910</v>
       </c>
       <c r="C86" s="2">
-        <v>3645</v>
+        <v>5304</v>
       </c>
       <c r="D86" s="2">
-        <v>5910</v>
+        <v>8606</v>
       </c>
       <c r="E86" s="4">
         <v>2017</v>
@@ -3258,16 +3493,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>984720</v>
+        <v>1431866</v>
       </c>
       <c r="C87" s="2">
-        <v>893662</v>
+        <v>1299265</v>
       </c>
       <c r="D87" s="2">
-        <v>91059</v>
+        <v>132602</v>
       </c>
       <c r="E87" s="4">
         <v>2017</v>
@@ -3282,13 +3517,13 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>8929</v>
+        <v>12989</v>
       </c>
       <c r="C88" s="2">
-        <v>8929</v>
+        <v>12989</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3306,16 +3541,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>8250</v>
+        <v>11996</v>
       </c>
       <c r="C89" s="2">
-        <v>6916</v>
+        <v>10054</v>
       </c>
       <c r="D89" s="2">
-        <v>1334</v>
+        <v>1943</v>
       </c>
       <c r="E89" s="4">
         <v>2017</v>
@@ -3330,16 +3565,16 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>1097</v>
+        <v>1596</v>
       </c>
       <c r="C90" s="2">
-        <v>1097</v>
+        <v>1596</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="4">
         <v>2017</v>
@@ -3354,16 +3589,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>164216</v>
+        <v>238905</v>
       </c>
       <c r="C91" s="2">
-        <v>147850</v>
+        <v>214946</v>
       </c>
       <c r="D91" s="2">
-        <v>16367</v>
+        <v>23960</v>
       </c>
       <c r="E91" s="4">
         <v>2017</v>
@@ -3378,16 +3613,16 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>3777</v>
+        <v>5491</v>
       </c>
       <c r="C92" s="2">
-        <v>3141</v>
+        <v>4565</v>
       </c>
       <c r="D92" s="3">
-        <v>636</v>
+        <v>926</v>
       </c>
       <c r="E92" s="4">
         <v>2017</v>
@@ -3402,16 +3637,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>43092</v>
+        <v>62651</v>
       </c>
       <c r="C93" s="2">
-        <v>14464</v>
+        <v>21027</v>
       </c>
       <c r="D93" s="2">
-        <v>28629</v>
+        <v>41624</v>
       </c>
       <c r="E93" s="4">
         <v>2017</v>
@@ -3426,16 +3661,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>33865</v>
+        <v>49224</v>
       </c>
       <c r="C94" s="2">
-        <v>33451</v>
+        <v>48620</v>
       </c>
       <c r="D94" s="3">
-        <v>415</v>
+        <v>604</v>
       </c>
       <c r="E94" s="4">
         <v>2017</v>
@@ -3450,16 +3685,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="5" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>2506931</v>
+        <v>3647138</v>
       </c>
       <c r="C95" s="2">
-        <v>863607</v>
+        <v>1255396</v>
       </c>
       <c r="D95" s="2">
-        <v>1643324</v>
+        <v>2391742</v>
       </c>
       <c r="E95" s="4">
         <v>2017</v>
@@ -3474,16 +3709,16 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C96" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <v>2017</v>
@@ -3498,16 +3733,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>227277</v>
+        <v>330731</v>
       </c>
       <c r="C97" s="2">
-        <v>179506</v>
+        <v>261070</v>
       </c>
       <c r="D97" s="2">
-        <v>47771</v>
+        <v>69661</v>
       </c>
       <c r="E97" s="4">
         <v>2017</v>
@@ -3522,16 +3757,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>233528</v>
+        <v>339524</v>
       </c>
       <c r="C98" s="2">
-        <v>222003</v>
+        <v>322741</v>
       </c>
       <c r="D98" s="2">
-        <v>11525</v>
+        <v>16784</v>
       </c>
       <c r="E98" s="4">
         <v>2017</v>
@@ -3546,16 +3781,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>152784</v>
+        <v>222217</v>
       </c>
       <c r="C99" s="2">
-        <v>147745</v>
+        <v>214891</v>
       </c>
       <c r="D99" s="2">
-        <v>5039</v>
+        <v>7326</v>
       </c>
       <c r="E99" s="4">
         <v>2017</v>
@@ -3570,16 +3805,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>100694</v>
+        <v>146423</v>
       </c>
       <c r="C100" s="2">
-        <v>91607</v>
+        <v>133129</v>
       </c>
       <c r="D100" s="2">
-        <v>9087</v>
+        <v>13294</v>
       </c>
       <c r="E100" s="4">
         <v>2017</v>
@@ -3594,16 +3829,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>30555</v>
+        <v>44418</v>
       </c>
       <c r="C101" s="2">
-        <v>28093</v>
+        <v>40834</v>
       </c>
       <c r="D101" s="2">
-        <v>2462</v>
+        <v>3584</v>
       </c>
       <c r="E101" s="4">
         <v>2017</v>
@@ -3618,16 +3853,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>15249</v>
+        <v>22175</v>
       </c>
       <c r="C102" s="2">
-        <v>13227</v>
+        <v>19231</v>
       </c>
       <c r="D102" s="2">
-        <v>2021</v>
+        <v>2944</v>
       </c>
       <c r="E102" s="4">
         <v>2017</v>
@@ -3642,16 +3877,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>211650</v>
+        <v>307829</v>
       </c>
       <c r="C103" s="2">
-        <v>74133</v>
+        <v>107727</v>
       </c>
       <c r="D103" s="2">
-        <v>137517</v>
+        <v>200102</v>
       </c>
       <c r="E103" s="4">
         <v>2017</v>
@@ -3666,16 +3901,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>263230</v>
+        <v>382709</v>
       </c>
       <c r="C104" s="2">
-        <v>46229</v>
+        <v>67080</v>
       </c>
       <c r="D104" s="2">
-        <v>217001</v>
+        <v>315628</v>
       </c>
       <c r="E104" s="4">
         <v>2017</v>
@@ -3690,16 +3925,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>74983</v>
+        <v>109040</v>
       </c>
       <c r="C105" s="2">
-        <v>39928</v>
+        <v>58013</v>
       </c>
       <c r="D105" s="2">
-        <v>35055</v>
+        <v>51027</v>
       </c>
       <c r="E105" s="4">
         <v>2017</v>
@@ -3714,16 +3949,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>6155</v>
+        <v>8946</v>
       </c>
       <c r="C106" s="2">
-        <v>4378</v>
+        <v>6359</v>
       </c>
       <c r="D106" s="2">
-        <v>1777</v>
+        <v>2587</v>
       </c>
       <c r="E106" s="4">
         <v>2017</v>
@@ -3738,16 +3973,16 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>436</v>
+        <v>634</v>
       </c>
       <c r="C107" s="3">
-        <v>436</v>
+        <v>634</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="4">
         <v>2017</v>
@@ -3762,16 +3997,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>3280</v>
+        <v>4767</v>
       </c>
       <c r="C108" s="2">
-        <v>3272</v>
+        <v>4755</v>
       </c>
       <c r="D108" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E108" s="4">
         <v>2017</v>
@@ -3786,16 +4021,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>7813</v>
+        <v>11323</v>
       </c>
       <c r="C109" s="2">
-        <v>2529</v>
+        <v>3678</v>
       </c>
       <c r="D109" s="2">
-        <v>5284</v>
+        <v>7645</v>
       </c>
       <c r="E109" s="4">
         <v>2017</v>
@@ -3810,13 +4045,13 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>3671</v>
+        <v>5338</v>
       </c>
       <c r="C110" s="2">
-        <v>3671</v>
+        <v>5338</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
@@ -3834,16 +4069,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>62614</v>
+        <v>90997</v>
       </c>
       <c r="C111" s="2">
-        <v>3412</v>
+        <v>4956</v>
       </c>
       <c r="D111" s="2">
-        <v>59202</v>
+        <v>86041</v>
       </c>
       <c r="E111" s="4">
         <v>2017</v>
@@ -3858,16 +4093,16 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="C112" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D112" s="3">
-        <v>331</v>
+        <v>482</v>
       </c>
       <c r="E112" s="4">
         <v>2017</v>
@@ -3882,16 +4117,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1369754</v>
+        <v>1994979</v>
       </c>
       <c r="C113" s="2">
-        <v>921789</v>
+        <v>1341059</v>
       </c>
       <c r="D113" s="2">
-        <v>447965</v>
+        <v>653920</v>
       </c>
       <c r="E113" s="4">
         <v>2017</v>
@@ -3906,16 +4141,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>568998</v>
+        <v>828965</v>
       </c>
       <c r="C114" s="2">
-        <v>348081</v>
+        <v>506343</v>
       </c>
       <c r="D114" s="2">
-        <v>220916</v>
+        <v>322622</v>
       </c>
       <c r="E114" s="4">
         <v>2017</v>
@@ -3930,16 +4165,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4453255</v>
+        <v>6479905</v>
       </c>
       <c r="C115" s="2">
-        <v>3245954</v>
+        <v>4720764</v>
       </c>
       <c r="D115" s="2">
-        <v>1207301</v>
+        <v>1759141</v>
       </c>
       <c r="E115" s="4">
         <v>2017</v>
@@ -3954,16 +4189,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>9449026</v>
+        <v>13790898</v>
       </c>
       <c r="C116" s="2">
-        <v>4044942</v>
+        <v>5887531</v>
       </c>
       <c r="D116" s="2">
-        <v>5404084</v>
+        <v>7903367</v>
       </c>
       <c r="E116" s="4">
         <v>2017</v>
@@ -3978,16 +4213,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>3343610</v>
+        <v>4872472</v>
       </c>
       <c r="C117" s="2">
-        <v>1661775</v>
+        <v>2417717</v>
       </c>
       <c r="D117" s="2">
-        <v>1681835</v>
+        <v>2454755</v>
       </c>
       <c r="E117" s="4">
         <v>2017</v>
@@ -4002,16 +4237,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>595702</v>
+        <v>867091</v>
       </c>
       <c r="C118" s="2">
-        <v>144793</v>
+        <v>210658</v>
       </c>
       <c r="D118" s="2">
-        <v>450910</v>
+        <v>656433</v>
       </c>
       <c r="E118" s="4">
         <v>2017</v>
@@ -4026,16 +4261,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>3032029</v>
+        <v>4421651</v>
       </c>
       <c r="C119" s="2">
-        <v>1865293</v>
+        <v>2715758</v>
       </c>
       <c r="D119" s="2">
-        <v>1166736</v>
+        <v>1705893</v>
       </c>
       <c r="E119" s="4">
         <v>2017</v>
@@ -4050,16 +4285,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>39805</v>
+        <v>58097</v>
       </c>
       <c r="C120" s="2">
-        <v>21707</v>
+        <v>31607</v>
       </c>
       <c r="D120" s="2">
-        <v>18098</v>
+        <v>26491</v>
       </c>
       <c r="E120" s="4">
         <v>2017</v>
@@ -4074,16 +4309,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>4195964</v>
+        <v>6106144</v>
       </c>
       <c r="C121" s="2">
-        <v>3583396</v>
+        <v>5211941</v>
       </c>
       <c r="D121" s="2">
-        <v>612567</v>
+        <v>894203</v>
       </c>
       <c r="E121" s="4">
         <v>2017</v>
@@ -4098,16 +4333,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>294867</v>
+        <v>428982</v>
       </c>
       <c r="C122" s="2">
-        <v>274302</v>
+        <v>398911</v>
       </c>
       <c r="D122" s="2">
-        <v>20565</v>
+        <v>30071</v>
       </c>
       <c r="E122" s="4">
         <v>2017</v>
@@ -4122,16 +4357,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>433983</v>
+        <v>631617</v>
       </c>
       <c r="C123" s="2">
-        <v>311777</v>
+        <v>453251</v>
       </c>
       <c r="D123" s="2">
-        <v>122206</v>
+        <v>178367</v>
       </c>
       <c r="E123" s="4">
         <v>2017</v>
@@ -4146,16 +4381,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1877357</v>
+        <v>2734944</v>
       </c>
       <c r="C124" s="2">
-        <v>1411245</v>
+        <v>2053763</v>
       </c>
       <c r="D124" s="2">
-        <v>466112</v>
+        <v>681181</v>
       </c>
       <c r="E124" s="4">
         <v>2017</v>
@@ -4170,16 +4405,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>44307</v>
+        <v>64424</v>
       </c>
       <c r="C125" s="2">
-        <v>32204</v>
+        <v>46801</v>
       </c>
       <c r="D125" s="2">
-        <v>12102</v>
+        <v>17623</v>
       </c>
       <c r="E125" s="4">
         <v>2017</v>
@@ -4194,16 +4429,16 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C126" s="3">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D126" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E126" s="4">
         <v>2017</v>
@@ -4218,16 +4453,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>482735</v>
+        <v>705402</v>
       </c>
       <c r="C127" s="2">
-        <v>145640</v>
+        <v>212075</v>
       </c>
       <c r="D127" s="2">
-        <v>337096</v>
+        <v>493327</v>
       </c>
       <c r="E127" s="4">
         <v>2017</v>
@@ -4242,16 +4477,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>138592</v>
+        <v>201830</v>
       </c>
       <c r="C128" s="2">
-        <v>71074</v>
+        <v>103403</v>
       </c>
       <c r="D128" s="2">
-        <v>67517</v>
+        <v>98427</v>
       </c>
       <c r="E128" s="4">
         <v>2017</v>
@@ -4266,16 +4501,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>409594</v>
+        <v>597163</v>
       </c>
       <c r="C129" s="2">
-        <v>170060</v>
+        <v>247530</v>
       </c>
       <c r="D129" s="2">
-        <v>239534</v>
+        <v>349633</v>
       </c>
       <c r="E129" s="4">
         <v>2017</v>
@@ -4290,16 +4525,16 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>371</v>
+        <v>539</v>
       </c>
       <c r="C130" s="3">
-        <v>354</v>
+        <v>514</v>
       </c>
       <c r="D130" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E130" s="4">
         <v>2017</v>
@@ -4314,16 +4549,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>585570</v>
+        <v>853181</v>
       </c>
       <c r="C131" s="2">
-        <v>380806</v>
+        <v>554135</v>
       </c>
       <c r="D131" s="2">
-        <v>204764</v>
+        <v>299045</v>
       </c>
       <c r="E131" s="4">
         <v>2017</v>
@@ -4338,16 +4573,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>11422</v>
+        <v>16637</v>
       </c>
       <c r="C132" s="2">
-        <v>5169</v>
+        <v>7517</v>
       </c>
       <c r="D132" s="2">
-        <v>6254</v>
+        <v>9120</v>
       </c>
       <c r="E132" s="4">
         <v>2017</v>
@@ -4362,16 +4597,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>8846</v>
+        <v>12902</v>
       </c>
       <c r="C133" s="2">
-        <v>2020</v>
+        <v>2936</v>
       </c>
       <c r="D133" s="2">
-        <v>6827</v>
+        <v>9966</v>
       </c>
       <c r="E133" s="4">
         <v>2017</v>
@@ -4386,16 +4621,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>98284</v>
+        <v>142971</v>
       </c>
       <c r="C134" s="2">
-        <v>71163</v>
+        <v>103473</v>
       </c>
       <c r="D134" s="2">
-        <v>27121</v>
+        <v>39498</v>
       </c>
       <c r="E134" s="4">
         <v>2017</v>
@@ -4410,16 +4645,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C135" s="3">
-        <v>952</v>
+        <v>2056</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1386</v>
       </c>
       <c r="D135" s="3">
-        <v>458</v>
+        <v>671</v>
       </c>
       <c r="E135" s="4">
         <v>2017</v>
@@ -4434,16 +4669,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>274768</v>
+        <v>399815</v>
       </c>
       <c r="C136" s="2">
-        <v>132698</v>
+        <v>193047</v>
       </c>
       <c r="D136" s="2">
-        <v>142070</v>
+        <v>206767</v>
       </c>
       <c r="E136" s="4">
         <v>2017</v>
@@ -4458,16 +4693,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>1150706</v>
+        <v>1674946</v>
       </c>
       <c r="C137" s="2">
-        <v>961137</v>
+        <v>1398115</v>
       </c>
       <c r="D137" s="2">
-        <v>189569</v>
+        <v>276831</v>
       </c>
       <c r="E137" s="4">
         <v>2017</v>
@@ -4482,16 +4717,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>334687</v>
+        <v>487753</v>
       </c>
       <c r="C138" s="2">
-        <v>239321</v>
+        <v>348242</v>
       </c>
       <c r="D138" s="2">
-        <v>95366</v>
+        <v>139511</v>
       </c>
       <c r="E138" s="4">
         <v>2017</v>
@@ -4506,16 +4741,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>426</v>
+        <v>620</v>
       </c>
       <c r="C139" s="3">
-        <v>353</v>
+        <v>513</v>
       </c>
       <c r="D139" s="3">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E139" s="4">
         <v>2017</v>
@@ -4530,16 +4765,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>860714</v>
+        <v>1253339</v>
       </c>
       <c r="C140" s="2">
-        <v>411119</v>
+        <v>597814</v>
       </c>
       <c r="D140" s="2">
-        <v>449595</v>
+        <v>655525</v>
       </c>
       <c r="E140" s="4">
         <v>2017</v>
@@ -4554,16 +4789,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>2311872</v>
+        <v>3366995</v>
       </c>
       <c r="C141" s="2">
-        <v>194116</v>
+        <v>282280</v>
       </c>
       <c r="D141" s="2">
-        <v>2117756</v>
+        <v>3084715</v>
       </c>
       <c r="E141" s="4">
         <v>2017</v>
@@ -4578,16 +4813,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>69897</v>
+        <v>101836</v>
       </c>
       <c r="C142" s="2">
-        <v>56873</v>
+        <v>82720</v>
       </c>
       <c r="D142" s="2">
-        <v>13024</v>
+        <v>19116</v>
       </c>
       <c r="E142" s="4">
         <v>2017</v>
@@ -4602,16 +4837,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>76393</v>
+        <v>111176</v>
       </c>
       <c r="C143" s="2">
-        <v>67760</v>
+        <v>98524</v>
       </c>
       <c r="D143" s="2">
-        <v>8633</v>
+        <v>12652</v>
       </c>
       <c r="E143" s="4">
         <v>2017</v>
@@ -4626,16 +4861,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>106100</v>
+        <v>154381</v>
       </c>
       <c r="C144" s="2">
-        <v>94142</v>
+        <v>136908</v>
       </c>
       <c r="D144" s="2">
-        <v>11958</v>
+        <v>17473</v>
       </c>
       <c r="E144" s="4">
         <v>2017</v>
@@ -4650,16 +4885,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>63248</v>
+        <v>91925</v>
       </c>
       <c r="C145" s="2">
-        <v>61194</v>
+        <v>88938</v>
       </c>
       <c r="D145" s="2">
-        <v>2054</v>
+        <v>2987</v>
       </c>
       <c r="E145" s="4">
         <v>2017</v>
@@ -4674,16 +4909,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>18739</v>
+        <v>27261</v>
       </c>
       <c r="C146" s="2">
-        <v>10646</v>
+        <v>15478</v>
       </c>
       <c r="D146" s="2">
-        <v>8093</v>
+        <v>11783</v>
       </c>
       <c r="E146" s="4">
         <v>2017</v>
@@ -4698,16 +4933,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>38768</v>
+        <v>56399</v>
       </c>
       <c r="C147" s="2">
-        <v>23054</v>
+        <v>33514</v>
       </c>
       <c r="D147" s="2">
-        <v>15714</v>
+        <v>22885</v>
       </c>
       <c r="E147" s="4">
         <v>2017</v>
@@ -4722,16 +4957,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>85126</v>
+        <v>123949</v>
       </c>
       <c r="C148" s="2">
-        <v>62540</v>
+        <v>91007</v>
       </c>
       <c r="D148" s="2">
-        <v>22587</v>
+        <v>32942</v>
       </c>
       <c r="E148" s="4">
         <v>2017</v>
@@ -4746,16 +4981,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>6054</v>
+        <v>8811</v>
       </c>
       <c r="C149" s="2">
-        <v>4388</v>
+        <v>6381</v>
       </c>
       <c r="D149" s="2">
-        <v>1666</v>
+        <v>2430</v>
       </c>
       <c r="E149" s="4">
         <v>2017</v>
@@ -4770,16 +5005,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>5264470</v>
+        <v>7661680</v>
       </c>
       <c r="C150" s="2">
-        <v>2589179</v>
+        <v>3766042</v>
       </c>
       <c r="D150" s="2">
-        <v>2675291</v>
+        <v>3895638</v>
       </c>
       <c r="E150" s="4">
         <v>2017</v>
@@ -4794,16 +5029,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>432333</v>
+        <v>628747</v>
       </c>
       <c r="C151" s="2">
-        <v>282189</v>
+        <v>410255</v>
       </c>
       <c r="D151" s="2">
-        <v>150144</v>
+        <v>218491</v>
       </c>
       <c r="E151" s="4">
         <v>2017</v>
@@ -4818,16 +5053,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>181126</v>
+        <v>263809</v>
       </c>
       <c r="C152" s="2">
-        <v>154248</v>
+        <v>224550</v>
       </c>
       <c r="D152" s="2">
-        <v>26878</v>
+        <v>39259</v>
       </c>
       <c r="E152" s="4">
         <v>2017</v>
@@ -4842,16 +5077,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>74557</v>
+        <v>108588</v>
       </c>
       <c r="C153" s="2">
-        <v>64689</v>
+        <v>94108</v>
       </c>
       <c r="D153" s="2">
-        <v>9868</v>
+        <v>14480</v>
       </c>
       <c r="E153" s="4">
         <v>2017</v>
@@ -4866,16 +5101,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>630530</v>
+        <v>919375</v>
       </c>
       <c r="C154" s="2">
-        <v>434020</v>
+        <v>631502</v>
       </c>
       <c r="D154" s="2">
-        <v>196510</v>
+        <v>287873</v>
       </c>
       <c r="E154" s="4">
         <v>2017</v>
@@ -4890,16 +5125,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>257271</v>
+        <v>374268</v>
       </c>
       <c r="C155" s="2">
-        <v>125654</v>
+        <v>182791</v>
       </c>
       <c r="D155" s="2">
-        <v>131617</v>
+        <v>191476</v>
       </c>
       <c r="E155" s="4">
         <v>2017</v>
@@ -4914,16 +5149,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>12274</v>
+        <v>17902</v>
       </c>
       <c r="C156" s="2">
-        <v>5233</v>
+        <v>7624</v>
       </c>
       <c r="D156" s="2">
-        <v>7041</v>
+        <v>10279</v>
       </c>
       <c r="E156" s="4">
         <v>2017</v>
@@ -4938,16 +5173,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>8742</v>
+        <v>12755</v>
       </c>
       <c r="C157" s="2">
-        <v>6261</v>
+        <v>9118</v>
       </c>
       <c r="D157" s="2">
-        <v>2481</v>
+        <v>3637</v>
       </c>
       <c r="E157" s="4">
         <v>2017</v>
@@ -4962,7 +5197,7 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4971,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
         <v>2017</v>
@@ -4986,16 +5221,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>7256</v>
+        <v>10558</v>
       </c>
       <c r="C159" s="3">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D159" s="2">
-        <v>7135</v>
+        <v>10381</v>
       </c>
       <c r="E159" s="4">
         <v>2017</v>
@@ -5010,16 +5245,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>42088</v>
+        <v>61369</v>
       </c>
       <c r="C160" s="2">
-        <v>29886</v>
+        <v>43523</v>
       </c>
       <c r="D160" s="2">
-        <v>12202</v>
+        <v>17846</v>
       </c>
       <c r="E160" s="4">
         <v>2017</v>
@@ -5034,16 +5269,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>11877</v>
+        <v>17284</v>
       </c>
       <c r="C161" s="2">
-        <v>8568</v>
+        <v>12463</v>
       </c>
       <c r="D161" s="2">
-        <v>3309</v>
+        <v>4821</v>
       </c>
       <c r="E161" s="4">
         <v>2017</v>
@@ -5058,7 +5293,7 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5082,16 +5317,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>15416610</v>
+        <v>22422374</v>
       </c>
       <c r="C163" s="2">
-        <v>7738537</v>
+        <v>11250165</v>
       </c>
       <c r="D163" s="2">
-        <v>7678073</v>
+        <v>11172209</v>
       </c>
       <c r="E163" s="4">
         <v>2017</v>
@@ -5106,13 +5341,13 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>3536</v>
+        <v>5139</v>
       </c>
       <c r="C164" s="2">
-        <v>3536</v>
+        <v>5139</v>
       </c>
       <c r="D164" s="3">
         <v>0</v>
@@ -5130,16 +5365,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>653382</v>
+        <v>949496</v>
       </c>
       <c r="C165" s="2">
-        <v>552669</v>
+        <v>803070</v>
       </c>
       <c r="D165" s="2">
-        <v>100713</v>
+        <v>146426</v>
       </c>
       <c r="E165" s="4">
         <v>2017</v>
@@ -5154,13 +5389,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1234</v>
+        <v>1793</v>
       </c>
       <c r="C166" s="2">
-        <v>1234</v>
+        <v>1793</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5178,16 +5413,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>42836</v>
+        <v>62182</v>
       </c>
       <c r="C167" s="2">
-        <v>41185</v>
+        <v>59778</v>
       </c>
       <c r="D167" s="2">
-        <v>1650</v>
+        <v>2404</v>
       </c>
       <c r="E167" s="4">
         <v>2017</v>
@@ -5202,16 +5437,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>6304</v>
+        <v>9174</v>
       </c>
       <c r="C168" s="2">
-        <v>4565</v>
+        <v>6642</v>
       </c>
       <c r="D168" s="2">
-        <v>1739</v>
+        <v>2533</v>
       </c>
       <c r="E168" s="4">
         <v>2017</v>
@@ -5226,16 +5461,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>4803</v>
+        <v>6982</v>
       </c>
       <c r="C169" s="2">
-        <v>4789</v>
+        <v>6962</v>
       </c>
       <c r="D169" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E169" s="4">
         <v>2017</v>
@@ -5250,16 +5485,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>57372</v>
+        <v>83459</v>
       </c>
       <c r="C170" s="2">
-        <v>39465</v>
+        <v>57392</v>
       </c>
       <c r="D170" s="2">
-        <v>17907</v>
+        <v>26068</v>
       </c>
       <c r="E170" s="4">
         <v>2017</v>
@@ -5274,16 +5509,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C171" s="3">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4">
         <v>2017</v>
@@ -5298,16 +5533,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>6097161</v>
+        <v>8869102</v>
       </c>
       <c r="C172" s="2">
-        <v>1706883</v>
+        <v>2481446</v>
       </c>
       <c r="D172" s="2">
-        <v>4390279</v>
+        <v>6387657</v>
       </c>
       <c r="E172" s="4">
         <v>2017</v>
@@ -5322,13 +5557,13 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" s="3">
-        <v>850</v>
-      </c>
-      <c r="C173" s="3">
-        <v>849</v>
+        <v>177</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1236</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5346,16 +5581,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1855224</v>
+        <v>2698203</v>
       </c>
       <c r="C174" s="2">
-        <v>874551</v>
+        <v>1271291</v>
       </c>
       <c r="D174" s="2">
-        <v>980674</v>
+        <v>1426912</v>
       </c>
       <c r="E174" s="4">
         <v>2017</v>
@@ -5370,16 +5605,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>567778</v>
+        <v>825701</v>
       </c>
       <c r="C175" s="2">
-        <v>437258</v>
+        <v>635751</v>
       </c>
       <c r="D175" s="2">
-        <v>130520</v>
+        <v>189950</v>
       </c>
       <c r="E175" s="4">
         <v>2017</v>
@@ -5394,16 +5629,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>2735</v>
+        <v>3979</v>
       </c>
       <c r="C176" s="2">
-        <v>2701</v>
+        <v>3930</v>
       </c>
       <c r="D176" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E176" s="4">
         <v>2017</v>
@@ -5418,16 +5653,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>129872</v>
+        <v>188859</v>
       </c>
       <c r="C177" s="2">
-        <v>87858</v>
+        <v>127713</v>
       </c>
       <c r="D177" s="2">
-        <v>42014</v>
+        <v>61145</v>
       </c>
       <c r="E177" s="4">
         <v>2017</v>
@@ -5442,16 +5677,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>115918</v>
+        <v>168851</v>
       </c>
       <c r="C178" s="2">
-        <v>70049</v>
+        <v>101981</v>
       </c>
       <c r="D178" s="2">
-        <v>45868</v>
+        <v>66870</v>
       </c>
       <c r="E178" s="4">
         <v>2017</v>
@@ -5466,16 +5701,16 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>2110</v>
+        <v>3066</v>
       </c>
       <c r="C179" s="2">
-        <v>2108</v>
+        <v>3063</v>
       </c>
       <c r="D179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179" s="4">
         <v>2017</v>
@@ -5490,16 +5725,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>110253</v>
+        <v>160311</v>
       </c>
       <c r="C180" s="2">
-        <v>102240</v>
+        <v>148646</v>
       </c>
       <c r="D180" s="2">
-        <v>8012</v>
+        <v>11665</v>
       </c>
       <c r="E180" s="4">
         <v>2017</v>
@@ -5514,16 +5749,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>225688</v>
+        <v>328184</v>
       </c>
       <c r="C181" s="2">
-        <v>182652</v>
+        <v>265515</v>
       </c>
       <c r="D181" s="2">
-        <v>43035</v>
+        <v>62669</v>
       </c>
       <c r="E181" s="4">
         <v>2017</v>
@@ -5538,13 +5773,13 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B182" s="2">
-        <v>2217</v>
+        <v>3226</v>
       </c>
       <c r="C182" s="2">
-        <v>2217</v>
+        <v>3226</v>
       </c>
       <c r="D182" s="3">
         <v>0</v>
@@ -5562,16 +5797,16 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" s="3">
-        <v>693</v>
-      </c>
-      <c r="C183" s="3">
-        <v>691</v>
+        <v>187</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1006</v>
       </c>
       <c r="D183" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183" s="4">
         <v>2017</v>
@@ -5586,13 +5821,13 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>2538</v>
+        <v>3694</v>
       </c>
       <c r="C184" s="2">
-        <v>2537</v>
+        <v>3693</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -5610,16 +5845,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>126015</v>
+        <v>183251</v>
       </c>
       <c r="C185" s="2">
-        <v>120953</v>
+        <v>175883</v>
       </c>
       <c r="D185" s="2">
-        <v>5062</v>
+        <v>7369</v>
       </c>
       <c r="E185" s="4">
         <v>2017</v>
@@ -5634,16 +5869,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>12644</v>
+        <v>18375</v>
       </c>
       <c r="C186" s="2">
-        <v>11234</v>
+        <v>16321</v>
       </c>
       <c r="D186" s="2">
-        <v>1410</v>
+        <v>2054</v>
       </c>
       <c r="E186" s="4">
         <v>2017</v>
@@ -5658,16 +5893,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>34438</v>
+        <v>50070</v>
       </c>
       <c r="C187" s="2">
-        <v>33737</v>
-      </c>
-      <c r="D187" s="3">
-        <v>701</v>
+        <v>49050</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1020</v>
       </c>
       <c r="E187" s="4">
         <v>2017</v>
@@ -5682,16 +5917,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>58446</v>
+        <v>84893</v>
       </c>
       <c r="C188" s="2">
-        <v>57061</v>
+        <v>82877</v>
       </c>
       <c r="D188" s="2">
-        <v>1385</v>
+        <v>2016</v>
       </c>
       <c r="E188" s="4">
         <v>2017</v>
@@ -5706,16 +5941,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>41102</v>
+        <v>59770</v>
       </c>
       <c r="C189" s="2">
-        <v>39376</v>
+        <v>57257</v>
       </c>
       <c r="D189" s="2">
-        <v>1726</v>
+        <v>2513</v>
       </c>
       <c r="E189" s="4">
         <v>2017</v>
@@ -5730,13 +5965,13 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1819</v>
+        <v>2646</v>
       </c>
       <c r="C190" s="2">
-        <v>1818</v>
+        <v>2646</v>
       </c>
       <c r="D190" s="3">
         <v>0</v>
@@ -5754,16 +5989,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2616610</v>
+        <v>3805305</v>
       </c>
       <c r="C191" s="2">
-        <v>1980910</v>
+        <v>2880461</v>
       </c>
       <c r="D191" s="2">
-        <v>635700</v>
+        <v>924844</v>
       </c>
       <c r="E191" s="4">
         <v>2017</v>
@@ -5778,7 +6013,7 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -5787,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="4">
         <v>2017</v>
@@ -5802,16 +6037,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>45062</v>
+        <v>65526</v>
       </c>
       <c r="C193" s="2">
-        <v>43201</v>
+        <v>62805</v>
       </c>
       <c r="D193" s="2">
-        <v>1861</v>
+        <v>2722</v>
       </c>
       <c r="E193" s="4">
         <v>2017</v>
@@ -5826,16 +6061,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>467598</v>
+        <v>679713</v>
       </c>
       <c r="C194" s="2">
-        <v>463702</v>
+        <v>674042</v>
       </c>
       <c r="D194" s="2">
-        <v>3896</v>
+        <v>5671</v>
       </c>
       <c r="E194" s="4">
         <v>2017</v>
@@ -5850,16 +6085,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>103683</v>
+        <v>150663</v>
       </c>
       <c r="C195" s="2">
-        <v>102454</v>
+        <v>148874</v>
       </c>
       <c r="D195" s="2">
-        <v>1228</v>
+        <v>1788</v>
       </c>
       <c r="E195" s="4">
         <v>2017</v>
@@ -5874,16 +6109,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>1079048</v>
+        <v>1569578</v>
       </c>
       <c r="C196" s="2">
-        <v>422165</v>
+        <v>613746</v>
       </c>
       <c r="D196" s="2">
-        <v>656883</v>
+        <v>955832</v>
       </c>
       <c r="E196" s="4">
         <v>2017</v>
@@ -5898,16 +6133,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>66900</v>
+        <v>97206</v>
       </c>
       <c r="C197" s="2">
-        <v>35173</v>
+        <v>51140</v>
       </c>
       <c r="D197" s="2">
-        <v>31726</v>
+        <v>46066</v>
       </c>
       <c r="E197" s="4">
         <v>2017</v>
@@ -5922,7 +6157,7 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5931,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4">
         <v>2017</v>
@@ -5946,13 +6181,13 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" s="3">
-        <v>703</v>
-      </c>
-      <c r="C199" s="3">
-        <v>702</v>
+        <v>203</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1023</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1022</v>
       </c>
       <c r="D199" s="3">
         <v>1</v>
@@ -5970,13 +6205,13 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>480</v>
+        <v>698</v>
       </c>
       <c r="C200" s="3">
-        <v>480</v>
+        <v>698</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
@@ -5994,16 +6229,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B201" s="3">
-        <v>721</v>
+        <v>205</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1049</v>
       </c>
       <c r="C201" s="3">
-        <v>683</v>
+        <v>994</v>
       </c>
       <c r="D201" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E201" s="4">
         <v>2017</v>
@@ -6018,16 +6253,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="5" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>46941</v>
+        <v>68276</v>
       </c>
       <c r="C202" s="2">
-        <v>42441</v>
+        <v>61728</v>
       </c>
       <c r="D202" s="2">
-        <v>4500</v>
+        <v>6548</v>
       </c>
       <c r="E202" s="4">
         <v>2017</v>
@@ -6042,16 +6277,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>15989</v>
+        <v>23237</v>
       </c>
       <c r="C203" s="2">
-        <v>14450</v>
+        <v>20996</v>
       </c>
       <c r="D203" s="2">
-        <v>1539</v>
+        <v>2241</v>
       </c>
       <c r="E203" s="4">
         <v>2017</v>
@@ -6066,16 +6301,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>24056</v>
+        <v>34995</v>
       </c>
       <c r="C204" s="2">
-        <v>20905</v>
+        <v>30407</v>
       </c>
       <c r="D204" s="2">
-        <v>3151</v>
+        <v>4588</v>
       </c>
       <c r="E204" s="4">
         <v>2017</v>
@@ -6090,13 +6325,13 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C205" s="3">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -6114,16 +6349,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>214750</v>
+        <v>312346</v>
       </c>
       <c r="C206" s="2">
-        <v>119923</v>
+        <v>174298</v>
       </c>
       <c r="D206" s="2">
-        <v>94827</v>
+        <v>138049</v>
       </c>
       <c r="E206" s="4">
         <v>2017</v>
@@ -6138,16 +6373,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>570901</v>
+        <v>831081</v>
       </c>
       <c r="C207" s="2">
-        <v>100964</v>
+        <v>146678</v>
       </c>
       <c r="D207" s="2">
-        <v>469936</v>
+        <v>684402</v>
       </c>
       <c r="E207" s="4">
         <v>2017</v>
@@ -6162,16 +6397,16 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="C208" s="3">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="D208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="4">
         <v>2017</v>
@@ -6186,16 +6421,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>458</v>
+        <v>666</v>
       </c>
       <c r="C209" s="3">
-        <v>420</v>
+        <v>611</v>
       </c>
       <c r="D209" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E209" s="4">
         <v>2017</v>
@@ -6210,16 +6445,16 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C210" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="4">
         <v>2017</v>
@@ -6234,13 +6469,13 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>5347</v>
+        <v>7778</v>
       </c>
       <c r="C211" s="2">
-        <v>5346</v>
+        <v>7778</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
@@ -6258,16 +6493,16 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C212" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="4">
         <v>2017</v>
@@ -6282,16 +6517,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>36337297</v>
+        <v>52844762</v>
       </c>
       <c r="C213" s="2">
-        <v>26044907</v>
+        <v>37867838</v>
       </c>
       <c r="D213" s="2">
-        <v>10292390</v>
+        <v>14976924</v>
       </c>
       <c r="E213" s="4">
         <v>2017</v>
@@ -6306,16 +6541,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>3013195</v>
+        <v>4381501</v>
       </c>
       <c r="C214" s="2">
-        <v>1816874</v>
+        <v>2641162</v>
       </c>
       <c r="D214" s="2">
-        <v>1196322</v>
+        <v>1740338</v>
       </c>
       <c r="E214" s="4">
         <v>2017</v>
@@ -6330,16 +6565,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>33313026</v>
+        <v>48447139</v>
       </c>
       <c r="C215" s="2">
-        <v>24226197</v>
+        <v>35223993</v>
       </c>
       <c r="D215" s="2">
-        <v>9086829</v>
+        <v>13223145</v>
       </c>
       <c r="E215" s="4">
         <v>2017</v>
@@ -6354,16 +6589,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>9973</v>
-      </c>
-      <c r="C216" s="3">
-        <v>734</v>
+        <v>14522</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1082</v>
       </c>
       <c r="D216" s="2">
-        <v>9239</v>
+        <v>13440</v>
       </c>
       <c r="E216" s="4">
         <v>2017</v>
@@ -6378,13 +6613,13 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2">
-        <v>1086</v>
+        <v>1576</v>
       </c>
       <c r="C217" s="2">
-        <v>1086</v>
+        <v>1576</v>
       </c>
       <c r="D217" s="3">
         <v>0</v>
@@ -6402,16 +6637,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C218" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="4">
         <v>2017</v>
@@ -6426,16 +6661,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>8718853</v>
+        <v>12681778</v>
       </c>
       <c r="C219" s="2">
-        <v>2804675</v>
+        <v>4077616</v>
       </c>
       <c r="D219" s="2">
-        <v>5914178</v>
+        <v>8604161</v>
       </c>
       <c r="E219" s="4">
         <v>2017</v>
@@ -6450,16 +6685,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="5" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>7467608</v>
+        <v>10862238</v>
       </c>
       <c r="C220" s="2">
-        <v>2239182</v>
+        <v>3255036</v>
       </c>
       <c r="D220" s="2">
-        <v>5228427</v>
+        <v>7607202</v>
       </c>
       <c r="E220" s="4">
         <v>2017</v>
@@ -6474,16 +6709,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>393</v>
+        <v>571</v>
       </c>
       <c r="C221" s="3">
-        <v>277</v>
+        <v>404</v>
       </c>
       <c r="D221" s="3">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E221" s="4">
         <v>2017</v>
@@ -6498,16 +6733,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>23058</v>
+        <v>33594</v>
       </c>
       <c r="C222" s="2">
-        <v>22223</v>
-      </c>
-      <c r="D222" s="3">
-        <v>836</v>
+        <v>32377</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1217</v>
       </c>
       <c r="E222" s="4">
         <v>2017</v>
@@ -6522,13 +6757,13 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D223" s="3">
         <v>0</v>
@@ -6546,16 +6781,16 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4">
         <v>2017</v>
@@ -6570,16 +6805,16 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" s="3">
         <v>1</v>
       </c>
       <c r="D225" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225" s="4">
         <v>2017</v>
@@ -6594,16 +6829,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>40863</v>
+        <v>59454</v>
       </c>
       <c r="C226" s="2">
-        <v>4938</v>
+        <v>7183</v>
       </c>
       <c r="D226" s="2">
-        <v>35925</v>
+        <v>52271</v>
       </c>
       <c r="E226" s="4">
         <v>2017</v>
@@ -6618,16 +6853,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>4622</v>
+        <v>6716</v>
       </c>
       <c r="C227" s="2">
-        <v>4150</v>
+        <v>6030</v>
       </c>
       <c r="D227" s="3">
-        <v>472</v>
+        <v>685</v>
       </c>
       <c r="E227" s="4">
         <v>2017</v>
@@ -6642,16 +6877,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>825003</v>
+        <v>1199169</v>
       </c>
       <c r="C228" s="2">
-        <v>281993</v>
+        <v>409990</v>
       </c>
       <c r="D228" s="2">
-        <v>543011</v>
+        <v>789178</v>
       </c>
       <c r="E228" s="4">
         <v>2017</v>
@@ -6666,16 +6901,16 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C229" s="3">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="4">
         <v>2017</v>
@@ -6690,16 +6925,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>130820</v>
+        <v>190298</v>
       </c>
       <c r="C230" s="2">
-        <v>54984</v>
+        <v>79882</v>
       </c>
       <c r="D230" s="2">
-        <v>75836</v>
+        <v>110416</v>
       </c>
       <c r="E230" s="4">
         <v>2017</v>
@@ -6714,16 +6949,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C231" s="3">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="4">
         <v>2017</v>
@@ -6738,16 +6973,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>33467</v>
+        <v>48707</v>
       </c>
       <c r="C232" s="2">
-        <v>4410</v>
+        <v>6413</v>
       </c>
       <c r="D232" s="2">
-        <v>29057</v>
+        <v>42294</v>
       </c>
       <c r="E232" s="4">
         <v>2017</v>
@@ -6762,16 +6997,16 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>1296</v>
+        <v>1886</v>
       </c>
       <c r="C233" s="2">
-        <v>1296</v>
+        <v>1886</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="4">
         <v>2017</v>
@@ -6786,16 +7021,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="4">
         <v>2017</v>
@@ -6810,16 +7045,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="4">
         <v>2017</v>
@@ -6834,16 +7069,16 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>4427</v>
+        <v>6437</v>
       </c>
       <c r="C236" s="2">
-        <v>4393</v>
+        <v>6389</v>
       </c>
       <c r="D236" s="3">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E236" s="4">
         <v>2017</v>
@@ -6858,13 +7093,13 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>1138</v>
+        <v>1657</v>
       </c>
       <c r="C237" s="2">
-        <v>1138</v>
+        <v>1657</v>
       </c>
       <c r="D237" s="3">
         <v>0</v>
@@ -6882,16 +7117,16 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>650</v>
+        <v>943</v>
       </c>
       <c r="C238" s="3">
-        <v>650</v>
+        <v>943</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="4">
         <v>2017</v>
@@ -6906,16 +7141,16 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B239" s="3">
-        <v>745</v>
-      </c>
-      <c r="C239" s="3">
-        <v>745</v>
+        <v>243</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1081</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1081</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E239" s="4">
         <v>2017</v>
@@ -6930,16 +7165,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>179333</v>
+        <v>261124</v>
       </c>
       <c r="C240" s="2">
-        <v>179333</v>
+        <v>261124</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E240" s="4">
         <v>2017</v>
@@ -6954,16 +7189,16 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>1251</v>
+        <v>1818</v>
       </c>
       <c r="C241" s="2">
-        <v>1251</v>
+        <v>1818</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E241" s="4">
         <v>2017</v>
@@ -6978,16 +7213,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>3749</v>
+        <v>5459</v>
       </c>
       <c r="C242" s="2">
-        <v>3284</v>
+        <v>4780</v>
       </c>
       <c r="D242" s="3">
-        <v>465</v>
+        <v>679</v>
       </c>
       <c r="E242" s="4">
         <v>2017</v>
@@ -7002,13 +7237,13 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C243" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D243" s="3">
         <v>0</v>
@@ -7026,16 +7261,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="C244" s="3">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="4">
         <v>2017</v>
@@ -7050,16 +7285,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>87094</v>
+        <v>126858</v>
       </c>
       <c r="C245" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D245" s="2">
-        <v>87089</v>
+        <v>126851</v>
       </c>
       <c r="E245" s="4">
         <v>2017</v>
